--- a/Texts/Город Сокровищ/Все персонажи/Амфарос.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Амфарос.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="99">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -217,6 +217,105 @@
   </si>
   <si>
     <t xml:space="preserve"> Îéœåãï, ÿ íïãô äàóû âàí åãï\nðïèçå.</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P28A/s32a0101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh! It\'s Team [team:]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I heard from [CS:N]Shaymin[CR] you were\nfinally able to reach the summit.\nCongratulations!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Huh? How is that [CS:N]Sneasel[CR] you\nhelped at the 7th Station Clearing doing?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, him. The next day, while I\nwas out on my rounds patrolling the mountain,\nhe snuck off…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Well, it seems like he recovered\nhis strength. You don\'t really need to worry.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, that reminds me. He left\nthis behind…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I think it\'s a token of\nhis appreciation…</t>
+  </si>
+  <si>
+    <t>[CN][player] received\n[CN]a [CS:I]Sky Gift[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]A warm and fuzzy feeling falls over you...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Well, I thought so, but you\nseem to have too much already.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> All right, I\'ll hold on to this\nfor you, then.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О! Команда [team:]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Шеймин[CR] рассказал мне, что вы\nнаконец смогли достичь вершины.\nПоздравляю!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что? Как дела у [CS:N]Снизела[CR]? Того,\nкоторого вы спасли у 7-го Перехода?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А, у него. На следующий день,\nкогда я был на обходе и патрулировал гору,\nон ушёл...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ну, кажется, ему уже гораздо\nлегче. Не стоит за него переживать.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О, кстати говоря. Он оставил\nэту вещь...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Думаю, это его благодарность...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Возьмите это.</t>
+  </si>
+  <si>
+    <t>Это...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Или не берите. Похоже, у вас\nмного вещей.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В таком случае, я пока придержу\nэто у себя.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Šåêíéî[CR] ñàòòëàèàì íîå, œóï âú\nîàëïîåø òíïãìé äïòóéœû âåñšéîú.\nÐïèäñàâìÿý!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï? Ëàë äåìà ô [CS:N]Òîéèåìà[CR]? Óïãï,\nëïóïñïãï âú òðàòìé ô 7-ãï Ðåñåöïäà?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À, ô îåãï. Îà òìåäôýþéê äåîû,\nëïãäà ÿ áúì îà ïáöïäå é ðàóñôìéñïâàì ãïñô,\nïî ôšæì...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îô, ëàçåóòÿ, åíô ôçå ãïñàèäï\nìåãœå. Îå òóïéó èà îåãï ðåñåçéâàóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï, ëòóàóé ãïâïñÿ. Ïî ïòóàâéì\nüóô âåþû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äôíàý, üóï åãï áìàãïäàñîïòóû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âïèûíéóå üóï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éìé îå áåñéóå. Ðïöïçå, ô âàò\níîïãï âåþåê.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â óàëïí òìôœàå, ÿ ðïëà ðñéäåñçô\nüóï ô òåáÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï! Ëïíàîäà [team:]!</t>
   </si>
 </sst>
 </file>
@@ -247,7 +346,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -288,11 +387,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -313,6 +423,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -595,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -841,7 +957,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>72</v>
       </c>
@@ -855,7 +971,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>75</v>
       </c>
@@ -869,7 +985,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>78</v>
       </c>
@@ -883,7 +999,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>86</v>
       </c>
@@ -897,18 +1013,232 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="4">
+    <row r="21" spans="1:5" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8">
         <v>89</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="9" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="4">
+        <v>87</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>106</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <v>119</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B25" s="4">
+        <v>122</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
+        <v>125</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="4">
+        <v>128</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="4">
+        <v>172</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="4">
+        <v>175</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="4">
+        <v>202</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B31" s="4">
+        <v>205</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="4">
+        <v>208</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="4">
+        <v>214</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>217</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="4">
+        <v>233</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="4">
+        <v>248</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
